--- a/biology/Botanique/Alstroemeriaceae/Alstroemeriaceae.xlsx
+++ b/biology/Botanique/Alstroemeriaceae/Alstroemeriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alstroemeriaceae (Alstroémériacées ou Alstrœmériacées), créée par la classification phylogénétique APG III regroupe des plantes monocotylédones qui comprend environ 200 espèces réparties en 4 à 5 genres.
 Ce sont des plantes herbacées, vivaces, rhizomateuses ou à bulbe, parfois grimpantes, des régions tempérées à tropicales d'Amérique centrale et d'Amérique du Sud.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Alstroemeria donné en hommage au Baron Clas Alströmer (1736-1794) naturaliste suédois élève et ami de Linné (1707-1778)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Alstroemeria donné en hommage au Baron Clas Alströmer (1736-1794) naturaliste suédois élève et ami de Linné (1707-1778).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] la famille n'existe pas et ces plantes sont assignées aux Liliacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) la famille n'existe pas et ces plantes sont assignées aux Liliacées.
 </t>
         </is>
       </c>
@@ -575,26 +591,28 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[3] inclut dans cette famille les genres précédemment placés dans la famille Luzuriagaceae. Les genres Drymophila, Luzuriaga pour être précis.
-Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Luzuriagaceae. Les genres Drymophila, Luzuriaga pour être précis.
+Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 Alstroemeria L. (1762)
 Bomarea Mirb. (1804)
 Drymophila R.Br. (1810) (anciennement dans la famille Luzuriagaceae)
 Schickendantziella Speg. (1903)
-Selon Angiosperm Phylogeny Website                        (20 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (20 mai 2010) :
 Alstroemeria L.
 Bomarea Mirb.
 Leontochir Phil.
 Schickendantzia Pax
-Selon NCBI  (15 avr. 2010)[6] (Plus conforme à APGIII puisqu'il incorpore les genres Drymophila, Luzuriaga anciennement dans Luzuriagaceae) :
+Selon NCBI  (15 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore les genres Drymophila, Luzuriaga anciennement dans Luzuriagaceae) :
 Alstroemeria
 Bomarea
 Drymophila (anciennement dans la famille Luzuriagaceae)
 Leontochir
 Luzuriaga (anciennement dans la famille Luzuriagaceae)
-Selon DELTA Angio           (15 avr. 2010)[7] :
+Selon DELTA Angio           (15 avr. 2010) :
 Alstroemeria
 Bomarea
 Leontochir
